--- a/municipal/ENG/byKindOfEconomicActivity/Number of active entities by kind of economic activity/Adjara A.R/Kobuleti.xlsx
+++ b/municipal/ENG/byKindOfEconomicActivity/Number of active entities by kind of economic activity/Adjara A.R/Kobuleti.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B8BF57-4112-4F10-9B4E-53D38AD46B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kobuleti" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>(Unit)</t>
   </si>
@@ -98,20 +99,17 @@
     <t>Activity unknown</t>
   </si>
   <si>
-    <t>Note: Data is confidential or isn't available.</t>
-  </si>
-  <si>
     <t>Number of active entities registered in Kobuleti Municipality by kind of economic activity and size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,18 +154,31 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -184,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -318,11 +329,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -339,45 +391,38 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -397,6 +442,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,6 +540,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -526,6 +592,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -701,131 +784,129 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AL26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="64" style="20" customWidth="1"/>
-    <col min="2" max="8" width="9.42578125" style="7" customWidth="1"/>
-    <col min="9" max="10" width="9" style="7" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="9" style="7" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="9" style="7" customWidth="1"/>
-    <col min="21" max="21" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9" style="7" customWidth="1"/>
-    <col min="24" max="28" width="10.7109375" style="6" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" style="6"/>
-    <col min="30" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="64" style="12" customWidth="1"/>
+    <col min="2" max="22" width="8.7109375" style="6" customWidth="1"/>
+    <col min="23" max="28" width="8.85546875" style="6" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
+      <c r="A1" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:38" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:38" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:38" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="24">
         <v>2012</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="26">
         <v>2013</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="26">
         <v>2014</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="26">
         <v>2015</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="26">
         <v>2016</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="26">
         <v>2017</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="26">
         <v>2018</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="18">
         <v>2019</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23">
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18">
         <v>2020</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23">
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18">
         <v>2021</v>
       </c>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="9"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="19">
+        <v>2022</v>
+      </c>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="19">
+        <v>2023</v>
+      </c>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="21"/>
     </row>
     <row r="4" spans="1:38" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
       <c r="I4" s="2" t="s">
         <v>1</v>
       </c>
@@ -871,97 +952,142 @@
       <c r="W4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
+      <c r="X4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="28">
         <v>1531</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="28">
         <v>1676</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="28">
         <v>1831</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="28">
         <v>2367</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="28">
         <v>2418</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="28">
         <v>2388</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="28">
         <v>2377</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="28">
         <v>2574</v>
       </c>
-      <c r="J5" s="12">
-        <v>2</v>
-      </c>
-      <c r="K5" s="12">
+      <c r="J5" s="28">
+        <v>2</v>
+      </c>
+      <c r="K5" s="28">
         <v>22</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="28">
         <v>1906</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="28">
         <v>644</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="28">
         <v>2442</v>
       </c>
-      <c r="O5" s="12">
-        <v>2</v>
-      </c>
-      <c r="P5" s="12">
+      <c r="O5" s="28">
+        <v>2</v>
+      </c>
+      <c r="P5" s="28">
         <v>20</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="28">
         <v>1650</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="28">
         <v>770</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="28">
         <v>2685</v>
       </c>
-      <c r="T5" s="12">
-        <v>1</v>
-      </c>
-      <c r="U5" s="12">
+      <c r="T5" s="28">
+        <v>1</v>
+      </c>
+      <c r="U5" s="28">
         <v>25</v>
       </c>
-      <c r="V5" s="12">
+      <c r="V5" s="28">
         <v>2345</v>
       </c>
-      <c r="W5" s="12">
+      <c r="W5" s="28">
         <v>314</v>
       </c>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="15"/>
+      <c r="X5" s="13">
+        <v>3451</v>
+      </c>
+      <c r="Y5" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="13">
+        <v>28</v>
+      </c>
+      <c r="AA5" s="13">
+        <v>2982</v>
+      </c>
+      <c r="AB5" s="13">
+        <v>440</v>
+      </c>
+      <c r="AC5" s="13">
+        <v>3606</v>
+      </c>
+      <c r="AD5" s="13">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="13">
+        <v>25</v>
+      </c>
+      <c r="AF5" s="13">
+        <v>3578</v>
+      </c>
+      <c r="AG5" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
     </row>
     <row r="6" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -1033,21 +1159,41 @@
       <c r="W6" s="14">
         <v>0</v>
       </c>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
+      <c r="X6" s="14">
+        <v>24</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="14">
+        <v>24</v>
+      </c>
+      <c r="AB6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="14">
+        <v>31</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="14">
+        <v>31</v>
+      </c>
+      <c r="AG6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
     </row>
     <row r="7" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -1119,21 +1265,41 @@
       <c r="W7" s="14">
         <v>0</v>
       </c>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="15"/>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="15"/>
+      <c r="X7" s="14">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="14">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="14">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="14">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
     </row>
     <row r="8" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -1205,21 +1371,41 @@
       <c r="W8" s="14">
         <v>18</v>
       </c>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="15"/>
-      <c r="AI8" s="15"/>
-      <c r="AJ8" s="15"/>
-      <c r="AK8" s="15"/>
-      <c r="AL8" s="15"/>
+      <c r="X8" s="14">
+        <v>239</v>
+      </c>
+      <c r="Y8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="14">
+        <v>3</v>
+      </c>
+      <c r="AA8" s="14">
+        <v>229</v>
+      </c>
+      <c r="AB8" s="14">
+        <v>7</v>
+      </c>
+      <c r="AC8" s="14">
+        <v>259</v>
+      </c>
+      <c r="AD8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="14">
+        <v>3</v>
+      </c>
+      <c r="AF8" s="14">
+        <v>256</v>
+      </c>
+      <c r="AG8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
     </row>
     <row r="9" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -1291,21 +1477,41 @@
       <c r="W9" s="14">
         <v>0</v>
       </c>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="15"/>
-      <c r="AK9" s="15"/>
-      <c r="AL9" s="15"/>
+      <c r="X9" s="14">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="14">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
     </row>
     <row r="10" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -1377,21 +1583,41 @@
       <c r="W10" s="14">
         <v>0</v>
       </c>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="15"/>
-      <c r="AL10" s="15"/>
+      <c r="X10" s="14">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="14">
+        <v>3</v>
+      </c>
+      <c r="AA10" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="14">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="14">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
     </row>
     <row r="11" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -1463,21 +1689,41 @@
       <c r="W11" s="14">
         <v>26</v>
       </c>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="15"/>
-      <c r="AL11" s="15"/>
+      <c r="X11" s="14">
+        <v>287</v>
+      </c>
+      <c r="Y11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="14">
+        <v>267</v>
+      </c>
+      <c r="AB11" s="14">
+        <v>20</v>
+      </c>
+      <c r="AC11" s="14">
+        <v>380</v>
+      </c>
+      <c r="AD11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="14">
+        <v>380</v>
+      </c>
+      <c r="AG11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
     </row>
     <row r="12" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -1549,21 +1795,41 @@
       <c r="W12" s="14">
         <v>84</v>
       </c>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="15"/>
-      <c r="AK12" s="15"/>
-      <c r="AL12" s="15"/>
+      <c r="X12" s="14">
+        <v>1362</v>
+      </c>
+      <c r="Y12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="14">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>1308</v>
+      </c>
+      <c r="AB12" s="14">
+        <v>49</v>
+      </c>
+      <c r="AC12" s="14">
+        <v>1326</v>
+      </c>
+      <c r="AD12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="14">
+        <v>6</v>
+      </c>
+      <c r="AF12" s="14">
+        <v>1320</v>
+      </c>
+      <c r="AG12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9"/>
     </row>
     <row r="13" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
@@ -1635,21 +1901,41 @@
       <c r="W13" s="14">
         <v>16</v>
       </c>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="15"/>
-      <c r="AK13" s="15"/>
-      <c r="AL13" s="15"/>
+      <c r="X13" s="14">
+        <v>383</v>
+      </c>
+      <c r="Y13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="14">
+        <v>367</v>
+      </c>
+      <c r="AB13" s="14">
+        <v>16</v>
+      </c>
+      <c r="AC13" s="14">
+        <v>540</v>
+      </c>
+      <c r="AD13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="14">
+        <v>539</v>
+      </c>
+      <c r="AG13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
     </row>
     <row r="14" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -1721,21 +2007,41 @@
       <c r="W14" s="14">
         <v>21</v>
       </c>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="15"/>
-      <c r="AI14" s="15"/>
-      <c r="AJ14" s="15"/>
-      <c r="AK14" s="15"/>
-      <c r="AL14" s="15"/>
+      <c r="X14" s="14">
+        <v>283</v>
+      </c>
+      <c r="Y14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="14">
+        <v>3</v>
+      </c>
+      <c r="AA14" s="14">
+        <v>254</v>
+      </c>
+      <c r="AB14" s="14">
+        <v>26</v>
+      </c>
+      <c r="AC14" s="14">
+        <v>345</v>
+      </c>
+      <c r="AD14" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="14">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="14">
+        <v>342</v>
+      </c>
+      <c r="AG14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
     </row>
     <row r="15" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
@@ -1807,21 +2113,41 @@
       <c r="W15" s="14">
         <v>2</v>
       </c>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="15"/>
-      <c r="AG15" s="15"/>
-      <c r="AH15" s="15"/>
-      <c r="AI15" s="15"/>
-      <c r="AJ15" s="15"/>
-      <c r="AK15" s="15"/>
-      <c r="AL15" s="15"/>
+      <c r="X15" s="14">
+        <v>27</v>
+      </c>
+      <c r="Y15" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="14">
+        <v>15</v>
+      </c>
+      <c r="AB15" s="14">
+        <v>12</v>
+      </c>
+      <c r="AC15" s="14">
+        <v>212</v>
+      </c>
+      <c r="AD15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="14">
+        <v>212</v>
+      </c>
+      <c r="AG15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
     </row>
     <row r="16" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
@@ -1893,21 +2219,41 @@
       <c r="W16" s="14">
         <v>1</v>
       </c>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="15"/>
-      <c r="AF16" s="15"/>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="15"/>
-      <c r="AI16" s="15"/>
-      <c r="AJ16" s="15"/>
-      <c r="AK16" s="15"/>
-      <c r="AL16" s="15"/>
+      <c r="X16" s="14">
+        <v>17</v>
+      </c>
+      <c r="Y16" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="14">
+        <v>17</v>
+      </c>
+      <c r="AB16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="14">
+        <v>19</v>
+      </c>
+      <c r="AD16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="14">
+        <v>19</v>
+      </c>
+      <c r="AG16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9"/>
     </row>
     <row r="17" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
@@ -1979,21 +2325,41 @@
       <c r="W17" s="14">
         <v>2</v>
       </c>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="15"/>
-      <c r="AF17" s="15"/>
-      <c r="AG17" s="15"/>
-      <c r="AH17" s="15"/>
-      <c r="AI17" s="15"/>
-      <c r="AJ17" s="15"/>
-      <c r="AK17" s="15"/>
-      <c r="AL17" s="15"/>
+      <c r="X17" s="14">
+        <v>44</v>
+      </c>
+      <c r="Y17" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="14">
+        <v>39</v>
+      </c>
+      <c r="AB17" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC17" s="14">
+        <v>69</v>
+      </c>
+      <c r="AD17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="14">
+        <v>69</v>
+      </c>
+      <c r="AG17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="9"/>
     </row>
     <row r="18" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
@@ -2065,21 +2431,41 @@
       <c r="W18" s="14">
         <v>3</v>
       </c>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="15"/>
-      <c r="AF18" s="15"/>
-      <c r="AG18" s="15"/>
-      <c r="AH18" s="15"/>
-      <c r="AI18" s="15"/>
-      <c r="AJ18" s="15"/>
-      <c r="AK18" s="15"/>
-      <c r="AL18" s="15"/>
+      <c r="X18" s="14">
+        <v>40</v>
+      </c>
+      <c r="Y18" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="14">
+        <v>38</v>
+      </c>
+      <c r="AB18" s="14">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="14">
+        <v>74</v>
+      </c>
+      <c r="AD18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="14">
+        <v>74</v>
+      </c>
+      <c r="AG18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9"/>
     </row>
     <row r="19" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
@@ -2151,21 +2537,41 @@
       <c r="W19" s="14">
         <v>3</v>
       </c>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="15"/>
-      <c r="AH19" s="15"/>
-      <c r="AI19" s="15"/>
-      <c r="AJ19" s="15"/>
-      <c r="AK19" s="15"/>
-      <c r="AL19" s="15"/>
+      <c r="X19" s="14">
+        <v>39</v>
+      </c>
+      <c r="Y19" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="14">
+        <v>36</v>
+      </c>
+      <c r="AB19" s="14">
+        <v>3</v>
+      </c>
+      <c r="AC19" s="14">
+        <v>54</v>
+      </c>
+      <c r="AD19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="14">
+        <v>54</v>
+      </c>
+      <c r="AG19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="9"/>
+      <c r="AJ19" s="9"/>
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="9"/>
     </row>
     <row r="20" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
@@ -2237,21 +2643,41 @@
       <c r="W20" s="14">
         <v>0</v>
       </c>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="15"/>
-      <c r="AF20" s="15"/>
-      <c r="AG20" s="15"/>
-      <c r="AH20" s="15"/>
-      <c r="AI20" s="15"/>
-      <c r="AJ20" s="15"/>
-      <c r="AK20" s="15"/>
-      <c r="AL20" s="15"/>
+      <c r="X20" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="14">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="14">
+        <v>2</v>
+      </c>
+      <c r="AD20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9"/>
     </row>
     <row r="21" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
@@ -2323,21 +2749,41 @@
       <c r="W21" s="14">
         <v>0</v>
       </c>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="15"/>
-      <c r="AF21" s="15"/>
-      <c r="AG21" s="15"/>
-      <c r="AH21" s="15"/>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="15"/>
-      <c r="AK21" s="15"/>
-      <c r="AL21" s="15"/>
+      <c r="X21" s="14">
+        <v>68</v>
+      </c>
+      <c r="Y21" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="14">
+        <v>7</v>
+      </c>
+      <c r="AA21" s="14">
+        <v>59</v>
+      </c>
+      <c r="AB21" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="14">
+        <v>73</v>
+      </c>
+      <c r="AD21" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="14">
+        <v>6</v>
+      </c>
+      <c r="AF21" s="14">
+        <v>66</v>
+      </c>
+      <c r="AG21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="9"/>
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="9"/>
     </row>
     <row r="22" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
@@ -2409,21 +2855,41 @@
       <c r="W22" s="14">
         <v>2</v>
       </c>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="14"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="15"/>
-      <c r="AG22" s="15"/>
-      <c r="AH22" s="15"/>
-      <c r="AI22" s="15"/>
-      <c r="AJ22" s="15"/>
-      <c r="AK22" s="15"/>
-      <c r="AL22" s="15"/>
+      <c r="X22" s="14">
+        <v>27</v>
+      </c>
+      <c r="Y22" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="14">
+        <v>2</v>
+      </c>
+      <c r="AA22" s="14">
+        <v>25</v>
+      </c>
+      <c r="AB22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="14">
+        <v>33</v>
+      </c>
+      <c r="AD22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="14">
+        <v>32</v>
+      </c>
+      <c r="AG22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="9"/>
     </row>
     <row r="23" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
@@ -2495,21 +2961,41 @@
       <c r="W23" s="14">
         <v>1</v>
       </c>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="14"/>
-      <c r="AD23" s="15"/>
-      <c r="AE23" s="15"/>
-      <c r="AF23" s="15"/>
-      <c r="AG23" s="15"/>
-      <c r="AH23" s="15"/>
-      <c r="AI23" s="15"/>
-      <c r="AJ23" s="15"/>
-      <c r="AK23" s="15"/>
-      <c r="AL23" s="15"/>
+      <c r="X23" s="14">
+        <v>20</v>
+      </c>
+      <c r="Y23" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="14">
+        <v>3</v>
+      </c>
+      <c r="AA23" s="14">
+        <v>16</v>
+      </c>
+      <c r="AB23" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="14">
+        <v>37</v>
+      </c>
+      <c r="AD23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="14">
+        <v>3</v>
+      </c>
+      <c r="AF23" s="14">
+        <v>34</v>
+      </c>
+      <c r="AG23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9"/>
     </row>
     <row r="24" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
@@ -2581,192 +3067,192 @@
       <c r="W24" s="14">
         <v>7</v>
       </c>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="14"/>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="15"/>
-      <c r="AF24" s="15"/>
-      <c r="AG24" s="15"/>
-      <c r="AH24" s="15"/>
-      <c r="AI24" s="15"/>
-      <c r="AJ24" s="15"/>
-      <c r="AK24" s="15"/>
-      <c r="AL24" s="15"/>
+      <c r="X24" s="14">
+        <v>59</v>
+      </c>
+      <c r="Y24" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="14">
+        <v>56</v>
+      </c>
+      <c r="AB24" s="14">
+        <v>3</v>
+      </c>
+      <c r="AC24" s="14">
+        <v>70</v>
+      </c>
+      <c r="AD24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="14">
+        <v>70</v>
+      </c>
+      <c r="AG24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="9"/>
+      <c r="AK24" s="9"/>
+      <c r="AL24" s="9"/>
     </row>
     <row r="25" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="15">
         <v>212</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="15">
         <v>120</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="15">
         <v>222</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="15">
         <v>367</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="15">
         <v>369</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="15">
         <v>268</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="15">
         <v>117</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="15">
         <v>83</v>
       </c>
-      <c r="J25" s="17">
-        <v>0</v>
-      </c>
-      <c r="K25" s="17">
-        <v>0</v>
-      </c>
-      <c r="L25" s="17">
+      <c r="J25" s="15">
+        <v>0</v>
+      </c>
+      <c r="K25" s="15">
+        <v>0</v>
+      </c>
+      <c r="L25" s="15">
         <v>42</v>
       </c>
-      <c r="M25" s="17">
+      <c r="M25" s="15">
         <v>41</v>
       </c>
-      <c r="N25" s="17">
+      <c r="N25" s="15">
         <v>59</v>
       </c>
-      <c r="O25" s="17">
-        <v>0</v>
-      </c>
-      <c r="P25" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="17">
+      <c r="O25" s="15">
+        <v>0</v>
+      </c>
+      <c r="P25" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="15">
         <v>18</v>
       </c>
-      <c r="R25" s="17">
+      <c r="R25" s="15">
         <v>41</v>
       </c>
-      <c r="S25" s="17">
+      <c r="S25" s="15">
         <v>190</v>
       </c>
-      <c r="T25" s="17">
-        <v>0</v>
-      </c>
-      <c r="U25" s="17">
-        <v>0</v>
-      </c>
-      <c r="V25" s="17">
+      <c r="T25" s="15">
+        <v>0</v>
+      </c>
+      <c r="U25" s="15">
+        <v>0</v>
+      </c>
+      <c r="V25" s="15">
         <v>62</v>
       </c>
-      <c r="W25" s="17">
+      <c r="W25" s="15">
         <v>128</v>
       </c>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="15"/>
-      <c r="AE25" s="15"/>
-      <c r="AF25" s="15"/>
-      <c r="AG25" s="15"/>
-      <c r="AH25" s="15"/>
-      <c r="AI25" s="15"/>
-      <c r="AJ25" s="15"/>
-      <c r="AK25" s="15"/>
-      <c r="AL25" s="15"/>
+      <c r="X25" s="15">
+        <v>521</v>
+      </c>
+      <c r="Y25" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="15">
+        <v>226</v>
+      </c>
+      <c r="AB25" s="15">
+        <v>295</v>
+      </c>
+      <c r="AC25" s="15">
+        <v>75</v>
+      </c>
+      <c r="AD25" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="15">
+        <v>75</v>
+      </c>
+      <c r="AG25" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="9"/>
+      <c r="AJ25" s="9"/>
+      <c r="AK25" s="9"/>
+      <c r="AL25" s="9"/>
     </row>
     <row r="26" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="15"/>
-      <c r="AF26" s="15"/>
-      <c r="AG26" s="15"/>
-      <c r="AH26" s="15"/>
-      <c r="AI26" s="15"/>
-      <c r="AJ26" s="15"/>
-      <c r="AK26" s="15"/>
-      <c r="AL26" s="15"/>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="9"/>
+      <c r="AJ26" s="9"/>
+      <c r="AK26" s="9"/>
+      <c r="AL26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AC3:AG3"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A1:W1"/>
     <mergeCell ref="N3:R3"/>
     <mergeCell ref="S3:W3"/>
     <mergeCell ref="X3:AB3"/>
